--- a/datasheet/regulateur_refV/LM2678S_ADJ.xlsx
+++ b/datasheet/regulateur_refV/LM2678S_ADJ.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/RobotMT/datasheet/regulateur_refV/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654CF5B-8C69-DA42-A6EC-F905BC67A77E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Données" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Vout min</t>
   </si>
@@ -34,6 +40,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>R1</t>
@@ -56,6 +63,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>R2</t>
@@ -78,6 +86,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Imax</t>
@@ -100,6 +109,62 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (V)</t>
+    </r>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>[6,25 ; 7,5]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (uH)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>E*T</t>
@@ -112,24 +177,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (V*us)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t xml:space="preserve"> (V*uS)</t>
+    </r>
+  </si>
+  <si>
+    <t>AVX TPS</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C (uF)</t>
+  </si>
+  <si>
+    <t>WV (V)</t>
+  </si>
+  <si>
+    <t>Irms (A)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <r>
       <t>Vout</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -138,38 +220,13 @@
     </r>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>[5 ; 6,25]</t>
-  </si>
-  <si>
-    <t>[6,25 ; 7,5]</t>
-  </si>
-  <si>
-    <t>[7,5 ; 10]</t>
-  </si>
-  <si>
-    <t>[10 ; 12,5]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
+    <r>
       <t>L</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -178,17 +235,83 @@
     </r>
   </si>
   <si>
-    <t>Cout</t>
-  </si>
-  <si>
-    <t>Cin</t>
+    <r>
+      <t>Imax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (A)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cout (Surface mount)</t>
+  </si>
+  <si>
+    <t>Cin (Surface mount)</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Pulse engineering</t>
+  </si>
+  <si>
+    <t>Valeur (uH)</t>
+  </si>
+  <si>
+    <t>Fabricant</t>
+  </si>
+  <si>
+    <t>Code farnell</t>
+  </si>
+  <si>
+    <t>C boost (Surface mount)</t>
+  </si>
+  <si>
+    <t>Diode Schottky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse voltage </t>
+  </si>
+  <si>
+    <t>45V</t>
+  </si>
+  <si>
+    <t>Courant</t>
+  </si>
+  <si>
+    <t>7,5A</t>
+  </si>
+  <si>
+    <t>0,01uF</t>
+  </si>
+  <si>
+    <t>Valeur (uF)</t>
+  </si>
+  <si>
+    <t>L41 (Through Hole)</t>
+  </si>
+  <si>
+    <t>22,8uH</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>P0841NL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,18 +347,60 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,6 +415,43 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -282,7 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,7 +502,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -329,6 +581,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -653,72 +913,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C2" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5">
         <f>$F$3*(B2/1.21-1)</f>
-        <v>3.1322314049586781</v>
+        <v>4.1652892561983474</v>
       </c>
       <c r="C3" s="5">
         <f>$F$3*(C2/1.21-1)</f>
-        <v>4.1652892561983474</v>
+        <v>5.1983471074380168</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -727,67 +972,290 @@
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="5">
         <f>((22-B2-0.12*$F$4)*(B2+0.5)*1000)/((22-0.12*$F$4+0.5)*260)</f>
-        <v>15.841236389181592</v>
+        <v>18.089104291934479</v>
       </c>
       <c r="C4" s="5">
         <f>((22-C2-0.12*$F$4)*(C2+0.5)*1000)/((22-0.12*$F$4+0.5)*260)</f>
-        <v>17.959694415173868</v>
+        <v>19.711106503559332</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="I4" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="G5" s="1"/>
-      <c r="I5" s="3" t="s">
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1658510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="G6" s="1"/>
+      <c r="G15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1432608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2215927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2677696</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D8:J8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Données!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Données!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -803,16 +1271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="G13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -820,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>5</v>
       </c>
@@ -828,7 +1296,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>6.25</v>
       </c>
@@ -836,7 +1304,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>7.5</v>
       </c>
@@ -844,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
